--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1077.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1077.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8377071914740837</v>
+        <v>1.213139176368713</v>
       </c>
       <c r="B1">
-        <v>2.106700607395956</v>
+        <v>2.633672952651978</v>
       </c>
       <c r="C1">
         <v>-1</v>
       </c>
       <c r="D1">
-        <v>2.258236043796222</v>
+        <v>2.159224033355713</v>
       </c>
       <c r="E1">
-        <v>1.414840997646699</v>
+        <v>1.15968656539917</v>
       </c>
     </row>
   </sheetData>
